--- a/r4-core-57-Patient-Identifier-TypeCodes/ValueSet-at-elga-vs-religion.xlsx
+++ b/r4-core-57-Patient-Identifier-TypeCodes/ValueSet-at-elga-vs-religion.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-12T14:27:51+00:00</t>
+    <t>2023-02-23T15:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-57-Patient-Identifier-TypeCodes/ValueSet-at-elga-vs-religion.xlsx
+++ b/r4-core-57-Patient-Identifier-TypeCodes/ValueSet-at-elga-vs-religion.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:10:02+00:00</t>
+    <t>2023-02-23T15:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-57-Patient-Identifier-TypeCodes/ValueSet-at-elga-vs-religion.xlsx
+++ b/r4-core-57-Patient-Identifier-TypeCodes/ValueSet-at-elga-vs-religion.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:10:16+00:00</t>
+    <t>2023-02-23T15:20:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-57-Patient-Identifier-TypeCodes/ValueSet-at-elga-vs-religion.xlsx
+++ b/r4-core-57-Patient-Identifier-TypeCodes/ValueSet-at-elga-vs-religion.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:20:14+00:00</t>
+    <t>2023-03-06T15:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
